--- a/BalanceSheet/FAST_bal.xlsx
+++ b/BalanceSheet/FAST_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>31100000.0</v>
+        <v>1305000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>13200000.0</v>
+        <v>1338000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>63600000.0</v>
+        <v>1343000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-51400000.0</v>
+        <v>1402000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>10600000.0</v>
+        <v>1346000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1366400000.0</v>
@@ -1590,19 +1590,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>8100000.0</v>
+        <v>215000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-3400000.0</v>
+        <v>207000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>16300000.0</v>
+        <v>210000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>194000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>19300000.0</v>
+        <v>212000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>192800000.0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>300000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-600000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2600000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>400000.0</v>
+        <v>100000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>500000.0</v>
+        <v>100000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>99400000.0</v>
